--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwkim\PycharmProjects\Cal_Bond_V001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6A4A6-08C0-45AF-8484-C813AF9636D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00CDE04-017F-4799-9D01-7501D4E6B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -108,6 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -388,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,6 +446,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B3" s="4">
+        <v>48245</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="4">
+        <v>48245</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>44322</v>
+      </c>
+      <c r="B5" s="4">
+        <v>48245</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwkim\PycharmProjects\Cal_Bond_V001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00CDE04-017F-4799-9D01-7501D4E6B0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8CB587-E869-4F96-8C67-6E5C9EA7670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="2700" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>44228</v>
       </c>
       <c r="B2" s="2">
-        <v>48245</v>
+        <v>46082</v>
       </c>
       <c r="C2" s="2">
         <v>45474</v>
@@ -437,13 +437,13 @@
         <v>10000</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -451,7 +451,7 @@
         <v>44256</v>
       </c>
       <c r="B3" s="4">
-        <v>48245</v>
+        <v>45689</v>
       </c>
       <c r="C3" s="4">
         <v>45474</v>
@@ -460,13 +460,13 @@
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>44621</v>
       </c>
       <c r="B4" s="4">
-        <v>48245</v>
+        <v>48335</v>
       </c>
       <c r="C4" s="4">
         <v>45474</v>
@@ -483,13 +483,13 @@
         <v>10000</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>44322</v>
       </c>
       <c r="B5" s="4">
-        <v>48245</v>
+        <v>46388</v>
       </c>
       <c r="C5" s="4">
         <v>45474</v>
@@ -506,13 +506,13 @@
         <v>10000</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
